--- a/biology/Médecine/Tronc_(anatomie)/Tronc_(anatomie).xlsx
+++ b/biology/Médecine/Tronc_(anatomie)/Tronc_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie humaine, le tronc est la partie moyenne du corps. On le subdivise en trois parties, de haut en bas : le thorax, le segment abdominal (l'abdomen et le dos sous thoracique) et le petit bassin.
 Le tronc est soutenu par les deux membres inférieurs qui sont reliés par les hanches au petit bassin en bas. Le tronc porte également les deux membres supérieurs au niveau du thorax, de chaque côté au niveau des épaules. Le thorax est également relié en haut à la tête par l'intermédiaire du cou.
@@ -515,26 +527,211 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Squelette
-Les os du tronc sont constitués par le rachis, la cage thoracique et le bassin.
-Musculature
-Les muscles du tronc sont constitués par l'ensemble des muscles de la paroi et du diaphragme.
-Vascularisation
-Artères
-Les principales artères du tronc sont :
-l'aorte et ses principales branches : le tronc brachiocéphalique, les artères carotides communes, les artères subclavières, le tronc cœliaque, les artères rénales, les artères mésentériques supérieures, les artères mésentériques inférieures, les artères iliaques communes, les artères iliaques internes et les artères iliaques externes.
-Veines
-Les principales veines du tronc sont :
+          <t>Squelette</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les os du tronc sont constitués par le rachis, la cage thoracique et le bassin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Musculature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles du tronc sont constitués par l'ensemble des muscles de la paroi et du diaphragme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les principales artères du tronc sont :
+l'aorte et ses principales branches : le tronc brachiocéphalique, les artères carotides communes, les artères subclavières, le tronc cœliaque, les artères rénales, les artères mésentériques supérieures, les artères mésentériques inférieures, les artères iliaques communes, les artères iliaques internes et les artères iliaques externes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Veines</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les principales veines du tronc sont :
 la veine cave supérieure et ses principales branches : les veines brachiocéphaliques, les veines jugulaires internes et les veines subclavières ;
 la veine cave inférieure et ses principales branches : les veines hépatiques, les veines rénales, les veines iliaques communes, les veines iliaques internes, les veines iliaques externes ;
 la veine porte et ses principales branches : la veine splénique, la veine mésentérique supérieure, la veine mésentérique inférieure ;
-la veine pulmonaire.
-Innervation
-Les nerfs du tronc sont principalement issus des nerfs spinaux thoraciques, lombaires et sacrés, ainsi que deux nerfs issus des nerfs spinaux cervicaux et des nerfs crâniens.
+la veine pulmonaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs du tronc sont principalement issus des nerfs spinaux thoraciques, lombaires et sacrés, ainsi que deux nerfs issus des nerfs spinaux cervicaux et des nerfs crâniens.
 Les principaux plexus nerveux sont les plexus lombaires et les plexus sacraux concernant le système nerveux somatique ; le plexus cœliaque, le plexus hypogastrique supérieur et le plexus hypogastrique inférieur concernant le système nerveux autonome.
 Les principaux nerfs somatiques sont les nerfs phréniques, les nerfs intercostaux, les nerfs fémoraux, les nerfs obturateurs, les nerfs sciatiques et les nerfs pudendaux. Les principaux nerfs autonomes sont les nerfs vagues et les troncs sympathiques.
-Viscères
-Les viscères principaux du tronc sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Viscères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les viscères principaux du tronc sont :
 pour l'appareil cardiovasculaire : le cœur et la rate ;
 pour le système nerveux : la moelle spinale ;
 pour l'appareil respiratoire : la trachée et les poumons ;
@@ -548,41 +745,187 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tronc_(anatomie)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie topographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc est constitué de trois parties, le thorax, l'abdomen et le petit bassin. Les limites du tronc sont constituées par le cou et les épaules en haut, et par les hanches en bas. La limite entre le thorax et l'abdomen est matérialisée par le diaphragme. La limite entre l'abdomen et le petit bassin est matérialisée par le péritoine inférieur.
-Thorax
-Le thorax est situé entre le cou en haut, les épaules sur les côtés et l'abdomen en bas. La paroi du thorax est musculosquelettique, son squelette est formé par la cage thoracique qui contient la moelle spinale. Chez la femme, la paroi comporte également les seins. La cavité thoracique est constituée de trois parties : les deux cavités pleurales et le médiastin. Les cavités pleurales contiennent essentiellement les poumons. Le médiastin contient essentiellement le cœur, la trachée et l'œsophage.
-Abdomen
-L'abdomen est situé entre le thorax en haut et le petit bassin en bas. La paroi de l'abdomen est essentiellement musculaire, son squelette est formé par le rachis lombaire. La cavité abdominale est constituée de deux parties : la cavité péritonéale et le rétropéritoine. La cavité péritonéale contient l'estomac, l'intestin grêle, le côlon, le foie et la rate. Le rétropéritoine contient les reins, les uretères, le pancréas et les glandes surrénales.
-Petit bassin
-Le petit bassin est situé entre l'abdomen en haut et les hanches sur les côtés. La paroi du petit bassin est musculosquelettique, son squelette est formé par le bassin osseux. La cavité du petit bassin contient le rectum et la vessie. Chez la femme, il contient également les ovaires, l'utérus et le vagin ; chez l'homme il contient également les vésicules séminales et la prostate.
-Périnée
-Le périnée constitue la paroi inférieure du petit bassin, musculaire. Le périnée contient le canal anal et l'urètre. Chez la femme il contient également le clitoris ; chez l'homme il soutient également le pénis et les testicules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Thorax</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thorax est situé entre le cou en haut, les épaules sur les côtés et l'abdomen en bas. La paroi du thorax est musculosquelettique, son squelette est formé par la cage thoracique qui contient la moelle spinale. Chez la femme, la paroi comporte également les seins. La cavité thoracique est constituée de trois parties : les deux cavités pleurales et le médiastin. Les cavités pleurales contiennent essentiellement les poumons. Le médiastin contient essentiellement le cœur, la trachée et l'œsophage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Abdomen</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abdomen est situé entre le thorax en haut et le petit bassin en bas. La paroi de l'abdomen est essentiellement musculaire, son squelette est formé par le rachis lombaire. La cavité abdominale est constituée de deux parties : la cavité péritonéale et le rétropéritoine. La cavité péritonéale contient l'estomac, l'intestin grêle, le côlon, le foie et la rate. Le rétropéritoine contient les reins, les uretères, le pancréas et les glandes surrénales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Petit bassin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit bassin est situé entre l'abdomen en haut et les hanches sur les côtés. La paroi du petit bassin est musculosquelettique, son squelette est formé par le bassin osseux. La cavité du petit bassin contient le rectum et la vessie. Chez la femme, il contient également les ovaires, l'utérus et le vagin ; chez l'homme il contient également les vésicules séminales et la prostate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Petit bassin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Périnée</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le périnée constitue la paroi inférieure du petit bassin, musculaire. Le périnée contient le canal anal et l'urètre. Chez la femme il contient également le clitoris ; chez l'homme il soutient également le pénis et les testicules.
 </t>
         </is>
       </c>
